--- a/ScrapResult.xlsx
+++ b/ScrapResult.xlsx
@@ -4,58 +4,57 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="live-5" sheetId="2" r:id="rId4"/>
-    <sheet name="live-48" sheetId="3" r:id="rId6"/>
-    <sheet name="live-36" sheetId="4" r:id="rId7"/>
-    <sheet name="live-18" sheetId="5" r:id="rId8"/>
-    <sheet name="live-3" sheetId="6" r:id="rId9"/>
-    <sheet name="live-1" sheetId="7" r:id="rId10"/>
-    <sheet name="live-4" sheetId="8" r:id="rId11"/>
-    <sheet name="live-7" sheetId="9" r:id="rId12"/>
-    <sheet name="live-8" sheetId="10" r:id="rId13"/>
-    <sheet name="live-2" sheetId="11" r:id="rId14"/>
-    <sheet name="live-6" sheetId="12" r:id="rId15"/>
-    <sheet name="live-9" sheetId="13" r:id="rId16"/>
-    <sheet name="live-13" sheetId="14" r:id="rId17"/>
-    <sheet name="live-35" sheetId="15" r:id="rId18"/>
-    <sheet name="live-15" sheetId="16" r:id="rId19"/>
-    <sheet name="live-39" sheetId="17" r:id="rId20"/>
-    <sheet name="live-32" sheetId="18" r:id="rId21"/>
-    <sheet name="live-25" sheetId="19" r:id="rId22"/>
-    <sheet name="live-10" sheetId="20" r:id="rId23"/>
-    <sheet name="live-46" sheetId="21" r:id="rId24"/>
-    <sheet name="live-28" sheetId="22" r:id="rId25"/>
-    <sheet name="live-43" sheetId="23" r:id="rId26"/>
-    <sheet name="live-47" sheetId="24" r:id="rId27"/>
-    <sheet name="live-12" sheetId="25" r:id="rId28"/>
-    <sheet name="live-34" sheetId="26" r:id="rId29"/>
-    <sheet name="live-14" sheetId="27" r:id="rId30"/>
-    <sheet name="live-37" sheetId="28" r:id="rId31"/>
-    <sheet name="live-11" sheetId="29" r:id="rId32"/>
-    <sheet name="live-17" sheetId="30" r:id="rId33"/>
-    <sheet name="live-27" sheetId="31" r:id="rId34"/>
-    <sheet name="live-26" sheetId="32" r:id="rId35"/>
-    <sheet name="live-33" sheetId="33" r:id="rId36"/>
-    <sheet name="live-30" sheetId="34" r:id="rId37"/>
-    <sheet name="live-42" sheetId="35" r:id="rId38"/>
-    <sheet name="live-29" sheetId="36" r:id="rId39"/>
-    <sheet name="live-44" sheetId="37" r:id="rId40"/>
-    <sheet name="live-31" sheetId="38" r:id="rId41"/>
-    <sheet name="live-19" sheetId="39" r:id="rId42"/>
-    <sheet name="live-38" sheetId="40" r:id="rId43"/>
-    <sheet name="live-40" sheetId="41" r:id="rId44"/>
-    <sheet name="live-16" sheetId="42" r:id="rId45"/>
-    <sheet name="live-41" sheetId="43" r:id="rId46"/>
-    <sheet name="live-22" sheetId="44" r:id="rId47"/>
-    <sheet name="live-21" sheetId="45" r:id="rId48"/>
-    <sheet name="live-24" sheetId="46" r:id="rId49"/>
-    <sheet name="live-23" sheetId="47" r:id="rId50"/>
-    <sheet name="live-45" sheetId="48" r:id="rId51"/>
-    <sheet name="live-20" sheetId="49" r:id="rId52"/>
+    <sheet name="live-1" sheetId="2" r:id="rId4"/>
+    <sheet name="live-2" sheetId="3" r:id="rId5"/>
+    <sheet name="live-3" sheetId="4" r:id="rId6"/>
+    <sheet name="live-4" sheetId="5" r:id="rId7"/>
+    <sheet name="live-5" sheetId="6" r:id="rId8"/>
+    <sheet name="live-6" sheetId="7" r:id="rId9"/>
+    <sheet name="live-7" sheetId="8" r:id="rId10"/>
+    <sheet name="live-8" sheetId="9" r:id="rId11"/>
+    <sheet name="live-9" sheetId="10" r:id="rId12"/>
+    <sheet name="live-10" sheetId="11" r:id="rId13"/>
+    <sheet name="live-11" sheetId="12" r:id="rId14"/>
+    <sheet name="live-12" sheetId="13" r:id="rId15"/>
+    <sheet name="live-13" sheetId="14" r:id="rId16"/>
+    <sheet name="live-14" sheetId="15" r:id="rId17"/>
+    <sheet name="live-15" sheetId="16" r:id="rId18"/>
+    <sheet name="live-16" sheetId="17" r:id="rId19"/>
+    <sheet name="live-17" sheetId="18" r:id="rId20"/>
+    <sheet name="live-18" sheetId="19" r:id="rId21"/>
+    <sheet name="live-19" sheetId="20" r:id="rId22"/>
+    <sheet name="live-20" sheetId="21" r:id="rId23"/>
+    <sheet name="live-21" sheetId="22" r:id="rId24"/>
+    <sheet name="live-22" sheetId="23" r:id="rId25"/>
+    <sheet name="live-23" sheetId="24" r:id="rId26"/>
+    <sheet name="live-24" sheetId="25" r:id="rId27"/>
+    <sheet name="live-25" sheetId="26" r:id="rId28"/>
+    <sheet name="live-26" sheetId="27" r:id="rId29"/>
+    <sheet name="live-27" sheetId="28" r:id="rId30"/>
+    <sheet name="live-28" sheetId="29" r:id="rId31"/>
+    <sheet name="live-29" sheetId="30" r:id="rId32"/>
+    <sheet name="live-30" sheetId="31" r:id="rId33"/>
+    <sheet name="live-31" sheetId="32" r:id="rId34"/>
+    <sheet name="live-32" sheetId="33" r:id="rId35"/>
+    <sheet name="live-33" sheetId="34" r:id="rId36"/>
+    <sheet name="live-34" sheetId="35" r:id="rId37"/>
+    <sheet name="live-35" sheetId="36" r:id="rId38"/>
+    <sheet name="live-36" sheetId="37" r:id="rId39"/>
+    <sheet name="live-37" sheetId="38" r:id="rId40"/>
+    <sheet name="live-38" sheetId="39" r:id="rId41"/>
+    <sheet name="live-39" sheetId="40" r:id="rId42"/>
+    <sheet name="live-40" sheetId="41" r:id="rId43"/>
+    <sheet name="live-41" sheetId="42" r:id="rId44"/>
+    <sheet name="live-42" sheetId="43" r:id="rId45"/>
+    <sheet name="live-43" sheetId="44" r:id="rId46"/>
+    <sheet name="live-44" sheetId="45" r:id="rId47"/>
+    <sheet name="live-45" sheetId="46" r:id="rId48"/>
+    <sheet name="live-46" sheetId="47" r:id="rId49"/>
+    <sheet name="live-47" sheetId="48" r:id="rId50"/>
+    <sheet name="live-48" sheetId="49" r:id="rId51"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -64,6 +63,1359 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
   <si>
+    <t>https://scrapeme.live/shop/Lickilicky/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rhyperior/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tangrowth/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Electivire/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Magmortar/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Togekiss/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Yanmega/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Leafeon/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Glaceon/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gliscor/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mamoswine/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gallade/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Probopass/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dusknoir/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Froslass/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rotom/ - https://scrapeme.live/shop/page/29/ - live-29</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kingler/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Voltorb/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Electrode/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Exeggcute/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Exeggutor/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Farfetchd/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Doduo/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cubone/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dodrio/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seel/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Marowak/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dewgong/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hitmonlee/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Grimer/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hitmonchan/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Muk/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lickitung/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shellder/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cloyster/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Koffing/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gastly/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Weezing/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Haunter/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rhyhorn/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gengar/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rhydon/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Onix/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chansey/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Drowzee/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tangela/ - https://scrapeme.live/shop/page/7/ - live-7</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hypno/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Krabby/ - https://scrapeme.live/shop/page/6/ - live-6</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Audino/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Timburr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gurdurr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Conkeldurr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Palpitoad/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seismitoad/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Throh/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sawk/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sewaddle/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swadloon/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Leavanny/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Venipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Whirlipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scolipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cottonee/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Whimsicott/ - https://scrapeme.live/shop/page/33/ - live-33</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Archen/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Archeops/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Trubbish/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Garbodor/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Klinklang/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tynamo/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zorua/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Eelektrik/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Minccino/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Eelektross/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Elgyem/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cinccino/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Beheeyem/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gothita/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Litwick/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gothorita/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lampent/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Axew/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gothitelle/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fraxure/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Solosis/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Haxorus/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Duosion/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cubchoo/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Reuniclus/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Beartic/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ducklett/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swanna/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cryogonal/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vanillite/ - https://scrapeme.live/shop/page/35/ - live-35</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shelmet/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Accelgor/ - https://scrapeme.live/shop/page/37/ - live-37</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Simisear/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Panpour/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Simipour/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Munna/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Musharna/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pidove/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tranquill/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Unfezant/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zebstrika/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Roggenrola/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Boldore/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gigalith/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Woobat/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swoobat/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Drilbur/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Excadrill/ - https://scrapeme.live/shop/page/32/ - live-32</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stunfisk/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mienfoo/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mienshao/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Druddigon/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Golett/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Golurk/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pawniard/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bisharp/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bouffalant/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rufflet/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Braviary/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vullaby/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mandibuzz/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Heatmor/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Durant/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Deino/ - https://scrapeme.live/shop/page/38/ - live-38</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mareep/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Flaaffy/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ampharos/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bellossom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Marill/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Azumarill/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sudowoodo/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Politoed/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hoppip/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skiploom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jumpluff/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aipom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sunkern/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sunflora/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Yanma/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wooper/ - https://scrapeme.live/shop/page/12/ - live-12</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Exploud/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Makuhita/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hariyama/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Azurill/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nosepass/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skitty/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Delcatty/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sableye/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mawile/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aron/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lairon/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aggron/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Meditite/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Medicham/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Electrike/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Manectric/ - https://scrapeme.live/shop/page/19/ - live-19</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zigzagoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Linoone/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wurmple/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Silcoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Beautifly/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cascoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dustox/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lotad/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lombre/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ludicolo/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seedot/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nuzleaf/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shiftry/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Taillow/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swellow/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wingull/ - https://scrapeme.live/shop/page/17/ - live-17</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lileep/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cradily/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Anorith/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Armaldo/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Feebas/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Milotic/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Castform/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kecleon/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shuppet/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Banette/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Duskull/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dusclops/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tropius/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chimecho/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Absol/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wynaut/ - https://scrapeme.live/shop/page/22/ - live-22</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Phanpy/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Donphan/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Porygon2/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stantler/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Smeargle/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tyrogue/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hitmontop/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Smoochum/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Elekid/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Magby/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Miltank/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Blissey/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Raikou/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Entei/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Suicune/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Larvitar/ - https://scrapeme.live/shop/page/15/ - live-15</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lopunny/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mismagius/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Honchkrow/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Glameow/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Purugly/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stunky/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skuntank/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bronzong/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bonsly/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mime-jr/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Happiny/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spinda/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Trapinch/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chatot/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vibrava/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Flygon/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spiritomb/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cacnea/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cacturne/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gible/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swablu/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Altaria/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gabite/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seviper/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lunatone/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Garchomp/ - https://scrapeme.live/shop/page/27/ - live-27</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Solrock/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Whiscash/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Corphish/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Crawdaunt/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Baltoy/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Claydol/ - https://scrapeme.live/shop/page/21/ - live-21</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Snorunt/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Glalie/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spheal/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sealeo/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Walrein/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Clamperl/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Huntail/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gorebyss/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Relicanth/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Luvdisc/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bagon/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shelgon/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Salamence/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Beldum/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Metang/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Metagross/ - https://scrapeme.live/shop/page/23/ - live-23</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bastiodon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Burmy/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mothim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Combee/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vespiquen/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pachirisu/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Buizel/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Floatzel/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cherubi/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cherrim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shellos/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gastrodon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ambipom/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Drifloon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Drifblim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Buneary/ - https://scrapeme.live/shop/page/26/ - live-26</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Clefairy/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Clefable/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vulpix/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ninetales/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jigglypuff/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wigglytuff/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zubat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Golbat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Oddish/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gloom/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vileplume/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Paras/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Parasect/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Venonat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Venomoth/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Diglett/ - https://scrapeme.live/shop/page/3/ - live-3</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kangaskhan/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Horsea/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seadra/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Goldeen/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Seaking/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Staryu/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Starmie/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mr-mime/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scyther/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jynx/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Electabuzz/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Magmar/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pinsir/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tauros/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Magikarp/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gyarados/ - https://scrapeme.live/shop/page/8/ - live-8</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dugtrio/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Meowth/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Persian/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Psyduck/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Golduck/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mankey/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Primeape/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Growlithe/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Arcanine/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Poliwag/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Poliwhirl/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Poliwrath/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Abra/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kadabra/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Alakazam/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Machop/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Regirock/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Regice/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Registeel/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Latias/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Latios/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kyogre/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Groudon/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rayquaza/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jirachi/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Turtwig/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Grotle/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Torterra/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chimchar/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Monferno/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Infernape/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Prinplup/ - https://scrapeme.live/shop/page/24/ - live-24</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dratini/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dragonair/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dragonite/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mewtwo/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mew/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chikorita/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bayleef/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Meganium/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cyndaquil/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Quilava/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Typhlosion/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Totodile/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Croconaw/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Feraligatr/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sentret/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Furret/ - https://scrapeme.live/shop/page/10/ - live-10</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Brionne/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Primarina/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pikipek/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Trumbeak/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Toucannon/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Yungoos/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gumshoos/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Grubbin/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Charjabug/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vikavolt/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Crabrawler/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Crabominable/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cutiefly/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ribombee/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rockruff/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mareanie/ - https://scrapeme.live/shop/page/44/ - live-44</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Petilil/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lilligant/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sandile/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Krokorok/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Krookodile/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Darumaka/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Maractus/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dwebble/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Crustle/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scraggy/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scrafty/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sigilyph/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Yamask/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cofagrigus/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tirtouga/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Carracosta/ - https://scrapeme.live/shop/page/34/ - live-34</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hoothoot/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Noctowl/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ledyba/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ledian/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spinarak/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ariados/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Crobat/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chinchou/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lanturn/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pichu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cleffa/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Igglybuff/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Togepi/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Togetic/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Natu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Xatu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tepig/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pignite/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Emboar/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Oshawott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dewott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Samurott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Patrat/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Watchog/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lillipup/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Herdier/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stoutland/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Purrloin/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Liepard/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pansage/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Simisage/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pansear/ - https://scrapeme.live/shop/page/31/ - live-31</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Frogadier/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Greninja/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bunnelby/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fletchling/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fletchinder/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Talonflame/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scatterbug/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spewpa/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vivillon/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Litleo/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pyroar/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Flabebe/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Floette/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Florges/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skiddo/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gogoat/ - https://scrapeme.live/shop/page/40/ - live-40</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pidgeotto/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pidgeot/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rattata/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Raticate/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spearow/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fearow/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ekans/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Arbok/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pikachu/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Raichu/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sandshrew/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sandslash/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nidorina/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nidoqueen/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nidorino/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nidoking/ - https://scrapeme.live/shop/page/2/ - live-2</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Naganadel/ - https://scrapeme.live/shop/page/48/ - live-48</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stakataka/ - https://scrapeme.live/shop/page/48/ - live-48</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Blacephalon/ - https://scrapeme.live/shop/page/48/ - live-48</t>
+  </si>
+  <si>
     <t>https://scrapeme.live/shop/Machoke/ - https://scrapeme.live/shop/page/5/ - live-5</t>
   </si>
   <si>
@@ -112,54 +1464,297 @@
     <t>https://scrapeme.live/shop/Magneton/ - https://scrapeme.live/shop/page/5/ - live-5</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Naganadel/ - https://scrapeme.live/shop/page/48/ - live-48</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stakataka/ - https://scrapeme.live/shop/page/48/ - live-48</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Blacephalon/ - https://scrapeme.live/shop/page/48/ - live-48</t>
+    <t>https://scrapeme.live/shop/Lapras/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ditto/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Eevee/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Vaporeon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jolteon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Flareon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Porygon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Omanyte/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Omastar/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kabuto/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kabutops/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aerodactyl/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Snorlax/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Articuno/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zapdos/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Moltres/ - https://scrapeme.live/shop/page/9/ - live-9</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Quagsire/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Espeon/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Umbreon/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Murkrow/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Slowking/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Misdreavus/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Unown/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wobbuffet/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Girafarig/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gligar/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Steelix/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Snubbull/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Granbull/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Qwilfish/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Scizor/ - https://scrapeme.live/shop/page/13/ - live-13</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shuckle/ - https://scrapeme.live/shop/page/13/ - live-13</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Vanillish/ - https://scrapeme.live/shop/page/36/ - live-36</t>
   </si>
   <si>
+    <t>https://scrapeme.live/shop/Vanilluxe/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Deerling/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sawsbuck/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Karrablast/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Escavalier/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Foongus/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Frillish/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jellicent/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Alomomola/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Joltik/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Galvantula/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ferroseed/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ferrothorn/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Klink/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Klang/ - https://scrapeme.live/shop/page/36/ - live-36</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Clawitzer/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Helioptile/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Heliolisk/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tyrunt/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tyrantrum/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Amaura/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aurorus/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sylveon/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hawlucha/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dedenne/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Carbink/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Goomy/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sliggoo/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Goodra/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Klefki/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Trevenant/ - https://scrapeme.live/shop/page/42/ - live-42</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zweilous/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hydreigon/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Volcarona/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cobalion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Terrakion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Virizion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Reshiram/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zekrom/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Genesect/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chespin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Quilladin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Chesnaught/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fennekin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Braixen/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Delphox/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Froakie/ - https://scrapeme.live/shop/page/39/ - live-39</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pangoro/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Furfrou/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Espurr/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Honedge/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Doublade/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spritzee/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Aromatisse/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swirlix/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Slurpuff/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Inkay/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Malamar/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Binacle/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Barbaracle/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skrelp/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dragalge/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Clauncher/ - https://scrapeme.live/shop/page/41/ - live-41</t>
+  </si>
+  <si>
     <t>https://scrapeme.live/shop/Pelipper/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Vanilluxe/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Deerling/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sawsbuck/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Karrablast/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Escavalier/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Foongus/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Frillish/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jellicent/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Alomomola/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Joltik/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Galvantula/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Ralts/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
@@ -169,102 +1764,453 @@
     <t>https://scrapeme.live/shop/Gardevoir/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Clefairy/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Clefable/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vulpix/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ninetales/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jigglypuff/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ferroseed/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Surskit/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Masquerain/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Wigglytuff/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Shroomish/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Zubat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ferrothorn/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Golbat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Oddish/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Breloom/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Gloom/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Slakoth/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Vileplume/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Vigoroth/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Slaking/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Paras/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Nincada/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Parasect/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Ninjask/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Venonat/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Shedinja/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Klink/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Venomoth/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Whismur/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Diglett/ - https://scrapeme.live/shop/page/3/ - live-3</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Klang/ - https://scrapeme.live/shop/page/36/ - live-36</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Loudred/ - https://scrapeme.live/shop/page/18/ - live-18</t>
   </si>
   <si>
+    <t>https://scrapeme.live/shop/Pupitar/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tyranitar/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lugia/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ho-oh/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Celebi/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Treecko/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Grovyle/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sceptile/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Torchic/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Combusken/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Blaziken/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mudkip/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Marshtomp/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swampert/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Poochyena/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mightyena/ - https://scrapeme.live/shop/page/16/ - live-16</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Toxapex/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mudbray/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mudsdale/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dewpider/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Araquanid/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Fomantis/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lurantis/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Morelull/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shiinotic/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Salandit/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Salazzle/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Stufful/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bewear/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bounsweet/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Steenee/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tsareena/ - https://scrapeme.live/shop/page/45/ - live-45</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Heracross/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sneasel/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Teddiursa/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Ursaring/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Magcargo/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swinub/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Piloswine/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Corsola/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Remoraid/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Octillery/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Delibird/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mantine/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Skarmory/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Houndour/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Houndoom/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kingdra/ - https://scrapeme.live/shop/page/14/ - live-14</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Empoleon/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Starly/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Staravia/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Staraptor/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bidoof/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bibarel/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kricketot/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kricketune/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shinx/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Luxio/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Luxray/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Budew/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Roserade/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cranidos/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Rampardos/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Shieldon/ - https://scrapeme.live/shop/page/25/ - live-25</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tapu-koko/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tapu-lele/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tapu-bulu/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Tapu-fini/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Solgaleo/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lunala/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Nihilego/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Buzzwole/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pheromosa/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Xurkitree/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Celesteela/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kartana/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Guzzlord/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Necrozma/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Marshadow/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Poipole/ - https://scrapeme.live/shop/page/47/ - live-47</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Plusle/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Minun/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Volbeat/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Illumise/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Roselia/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Gulpin/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Swalot/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Carvanha/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sharpedo/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wailmer/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wailord/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Numel/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Camerupt/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Torkoal/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Spoink/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Grumpig/ - https://scrapeme.live/shop/page/20/ - live-20</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Uxie/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Mesprit/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Azelf/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Dialga/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Palkia/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Heatran/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Regigigas/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Cresselia/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Phione/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Manaphy/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Darkrai/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Arceus/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Victini/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Snivy/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Servine/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Serperior/ - https://scrapeme.live/shop/page/30/ - live-30</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Comfey/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Oranguru/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Passimian/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Wimpod/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Golisopod/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Sandygast/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Palossand/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Pyukumuku/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Silvally/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Komala/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Turtonator/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Togedemaru/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Drampa/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Jangmo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hakamo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Kommo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Bergmite/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Avalugg/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Noibat/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Noivern/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Xerneas/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Yveltal/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Zygarde/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Diancie/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hoopa/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
     <t>https://scrapeme.live/shop/Bulbasaur/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
@@ -274,729 +2220,78 @@
     <t>https://scrapeme.live/shop/Venusaur/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
+    <t>https://scrapeme.live/shop/Volcanion/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
     <t>https://scrapeme.live/shop/Charmander/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Charmeleon/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Dugtrio/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Meowth/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+    <t>https://scrapeme.live/shop/Dartrix/ - https://scrapeme.live/shop/page/43/ - live-43</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Charizard/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Persian/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Psyduck/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+    <t>https://scrapeme.live/shop/Decidueye/ - https://scrapeme.live/shop/page/43/ - live-43</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Squirtle/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Golduck/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mankey/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Wartortle/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Blastoise/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Primeape/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+    <t>https://scrapeme.live/shop/Litten/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Torracat/ - https://scrapeme.live/shop/page/43/ - live-43</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Caterpie/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Growlithe/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Metapod/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Arcanine/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Poliwag/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Butterfree/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Poliwhirl/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Weedle/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Poliwrath/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Kakuna/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Abra/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Beedrill/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Kadabra/ - https://scrapeme.live/shop/page/4/ - live-4</t>
+    <t>https://scrapeme.live/shop/Munchlax/ - https://scrapeme.live/shop/page/28/ - live-28</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Riolu/ - https://scrapeme.live/shop/page/28/ - live-28</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Incineroar/ - https://scrapeme.live/shop/page/43/ - live-43</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Lucario/ - https://scrapeme.live/shop/page/28/ - live-28</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Hippopotas/ - https://scrapeme.live/shop/page/28/ - live-28</t>
+  </si>
+  <si>
+    <t>https://scrapeme.live/shop/Popplio/ - https://scrapeme.live/shop/page/43/ - live-43</t>
   </si>
   <si>
     <t>https://scrapeme.live/shop/Pidgey/ - https://scrapeme.live/shop/ - live-1</t>
   </si>
   <si>
-    <t>https://scrapeme.live/shop/Alakazam/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Machop/ - https://scrapeme.live/shop/page/4/ - live-4</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kingler/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Voltorb/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Electrode/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Exeggcute/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Exeggutor/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cubone/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Marowak/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hitmonlee/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hitmonchan/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lickitung/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Koffing/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Weezing/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rhyhorn/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rhydon/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chansey/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tangela/ - https://scrapeme.live/shop/page/7/ - live-7</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kangaskhan/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Horsea/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seadra/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Goldeen/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seaking/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Staryu/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Starmie/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mr-mime/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scyther/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jynx/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Electabuzz/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Magmar/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pinsir/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tauros/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Magikarp/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pidgeotto/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pidgeot/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gyarados/ - https://scrapeme.live/shop/page/8/ - live-8</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rattata/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Raticate/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spearow/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fearow/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ekans/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Arbok/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pikachu/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Raichu/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sandshrew/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sandslash/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nidorina/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nidoqueen/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nidorino/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nidoking/ - https://scrapeme.live/shop/page/2/ - live-2</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Farfetchd/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Doduo/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dodrio/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seel/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dewgong/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Grimer/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Muk/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shellder/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cloyster/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gastly/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Haunter/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gengar/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Onix/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Drowzee/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hypno/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Krabby/ - https://scrapeme.live/shop/page/6/ - live-6</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lapras/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ditto/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Eevee/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vaporeon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jolteon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Flareon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Porygon/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Omanyte/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Omastar/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kabuto/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kabutops/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aerodactyl/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Snorlax/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Articuno/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zapdos/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Moltres/ - https://scrapeme.live/shop/page/9/ - live-9</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Quagsire/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Espeon/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Umbreon/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Murkrow/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Slowking/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Misdreavus/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Unown/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wobbuffet/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Girafarig/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gligar/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Steelix/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Snubbull/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Granbull/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Qwilfish/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scizor/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shuckle/ - https://scrapeme.live/shop/page/13/ - live-13</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Archen/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Archeops/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Trubbish/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Garbodor/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zorua/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Minccino/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cinccino/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gothita/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gothorita/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gothitelle/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Solosis/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Duosion/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Reuniclus/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ducklett/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swanna/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vanillite/ - https://scrapeme.live/shop/page/35/ - live-35</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Phanpy/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Donphan/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Porygon2/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stantler/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Smeargle/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tyrogue/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hitmontop/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Smoochum/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Elekid/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Magby/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Miltank/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Blissey/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Raikou/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Entei/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Suicune/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Larvitar/ - https://scrapeme.live/shop/page/15/ - live-15</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zweilous/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hydreigon/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Volcarona/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cobalion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Terrakion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Virizion/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Reshiram/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zekrom/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Genesect/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chespin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Quilladin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chesnaught/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Simisear/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fennekin/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Panpour/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Simipour/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Munna/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Braixen/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Musharna/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pidove/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Delphox/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tranquill/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Unfezant/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Froakie/ - https://scrapeme.live/shop/page/39/ - live-39</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zebstrika/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Roggenrola/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Boldore/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gigalith/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Woobat/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swoobat/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Drilbur/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Excadrill/ - https://scrapeme.live/shop/page/32/ - live-32</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Empoleon/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Starly/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Staravia/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Staraptor/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bidoof/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bibarel/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kricketot/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kricketune/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shinx/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Luxio/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Luxray/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Budew/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Roserade/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cranidos/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rampardos/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shieldon/ - https://scrapeme.live/shop/page/25/ - live-25</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dratini/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dragonair/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dragonite/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mewtwo/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mew/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chikorita/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bayleef/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Meganium/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cyndaquil/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Quilava/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Typhlosion/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Totodile/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Croconaw/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Feraligatr/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sentret/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Furret/ - https://scrapeme.live/shop/page/10/ - live-10</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Comfey/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Oranguru/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Passimian/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wimpod/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Golisopod/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sandygast/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Palossand/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pyukumuku/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Silvally/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Komala/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Turtonator/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Togedemaru/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Drampa/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jangmo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hakamo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kommo-o/ - https://scrapeme.live/shop/page/46/ - live-46</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Munchlax/ - https://scrapeme.live/shop/page/28/ - live-28</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Riolu/ - https://scrapeme.live/shop/page/28/ - live-28</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lucario/ - https://scrapeme.live/shop/page/28/ - live-28</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hippopotas/ - https://scrapeme.live/shop/page/28/ - live-28</t>
-  </si>
-  <si>
     <t>https://scrapeme.live/shop/Hippowdon/ - https://scrapeme.live/shop/page/28/ - live-28</t>
   </si>
   <si>
@@ -1031,1302 +2326,6 @@
   </si>
   <si>
     <t>https://scrapeme.live/shop/Magnezone/ - https://scrapeme.live/shop/page/28/ - live-28</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bergmite/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Avalugg/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Noibat/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Noivern/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Xerneas/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Yveltal/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zygarde/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Diancie/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hoopa/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Volcanion/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dartrix/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Decidueye/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Litten/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Torracat/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Incineroar/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Popplio/ - https://scrapeme.live/shop/page/43/ - live-43</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tapu-koko/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tapu-lele/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tapu-bulu/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tapu-fini/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Solgaleo/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lunala/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nihilego/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Buzzwole/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pheromosa/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Xurkitree/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Celesteela/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kartana/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Guzzlord/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Necrozma/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Marshadow/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Poipole/ - https://scrapeme.live/shop/page/47/ - live-47</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mareep/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Flaaffy/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ampharos/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bellossom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Marill/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Azumarill/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sudowoodo/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Politoed/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hoppip/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skiploom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jumpluff/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aipom/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sunkern/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sunflora/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Yanma/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wooper/ - https://scrapeme.live/shop/page/12/ - live-12</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Petilil/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lilligant/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sandile/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Krokorok/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Krookodile/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Darumaka/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Maractus/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dwebble/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Crustle/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scraggy/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scrafty/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sigilyph/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Yamask/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cofagrigus/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tirtouga/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Carracosta/ - https://scrapeme.live/shop/page/34/ - live-34</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Heracross/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sneasel/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Teddiursa/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ursaring/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Magcargo/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swinub/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Piloswine/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Corsola/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Remoraid/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Octillery/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Delibird/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mantine/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skarmory/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Houndour/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Houndoom/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kingdra/ - https://scrapeme.live/shop/page/14/ - live-14</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Klinklang/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tynamo/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Eelektrik/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Eelektross/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Elgyem/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Beheeyem/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Litwick/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lampent/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Axew/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fraxure/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Haxorus/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cubchoo/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Beartic/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cryogonal/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shelmet/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Accelgor/ - https://scrapeme.live/shop/page/37/ - live-37</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hoothoot/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Noctowl/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ledyba/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ledian/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spinarak/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ariados/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Crobat/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chinchou/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lanturn/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pichu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cleffa/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Igglybuff/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Togepi/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Togetic/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Zigzagoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Linoone/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Natu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wurmple/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Silcoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Xatu/ - https://scrapeme.live/shop/page/11/ - live-11</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Beautifly/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cascoon/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dustox/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lotad/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lombre/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ludicolo/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seedot/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nuzleaf/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shiftry/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Taillow/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swellow/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wingull/ - https://scrapeme.live/shop/page/17/ - live-17</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lopunny/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mismagius/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Honchkrow/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Glameow/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Purugly/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stunky/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skuntank/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bronzong/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bonsly/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mime-jr/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Happiny/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chatot/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spiritomb/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gible/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gabite/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Garchomp/ - https://scrapeme.live/shop/page/27/ - live-27</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bastiodon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Burmy/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mothim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Combee/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vespiquen/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pachirisu/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Buizel/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Floatzel/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cherubi/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cherrim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shellos/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gastrodon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ambipom/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Audino/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Drifloon/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Timburr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gurdurr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Conkeldurr/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Drifblim/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Palpitoad/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seismitoad/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Buneary/ - https://scrapeme.live/shop/page/26/ - live-26</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Throh/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sawk/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sewaddle/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swadloon/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Leavanny/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Venipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Whirlipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scolipede/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cottonee/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Whimsicott/ - https://scrapeme.live/shop/page/33/ - live-33</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Uxie/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mesprit/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Azelf/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dialga/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Palkia/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Heatran/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Regigigas/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cresselia/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Phione/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Manaphy/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Darkrai/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Arceus/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Victini/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Snivy/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Servine/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Serperior/ - https://scrapeme.live/shop/page/30/ - live-30</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Clawitzer/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Helioptile/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Heliolisk/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tyrunt/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tyrantrum/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Amaura/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aurorus/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sylveon/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hawlucha/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dedenne/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Carbink/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Goomy/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sliggoo/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Goodra/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Klefki/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Trevenant/ - https://scrapeme.live/shop/page/42/ - live-42</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lickilicky/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rhyperior/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tangrowth/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Electivire/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Magmortar/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Togekiss/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Yanmega/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Leafeon/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Glaceon/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gliscor/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mamoswine/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gallade/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Brionne/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Primarina/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Probopass/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dusknoir/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tepig/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pignite/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pikipek/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Froslass/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Trumbeak/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Toucannon/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rotom/ - https://scrapeme.live/shop/page/29/ - live-29</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Yungoos/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Emboar/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Oshawott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gumshoos/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dewott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Grubbin/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Samurott/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Charjabug/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Patrat/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vikavolt/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Watchog/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Crabrawler/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lillipup/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Crabominable/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Herdier/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stoutland/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cutiefly/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Purrloin/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ribombee/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Liepard/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rockruff/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pansage/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mareanie/ - https://scrapeme.live/shop/page/44/ - live-44</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Simisage/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pansear/ - https://scrapeme.live/shop/page/31/ - live-31</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Exploud/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Makuhita/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Hariyama/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Azurill/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Nosepass/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skitty/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Delcatty/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sableye/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mawile/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aron/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lairon/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aggron/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Meditite/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Medicham/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Electrike/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Manectric/ - https://scrapeme.live/shop/page/19/ - live-19</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stunfisk/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Frogadier/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Greninja/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mienfoo/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bunnelby/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mienshao/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fletchling/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Druddigon/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fletchinder/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Golett/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Talonflame/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Golurk/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Scatterbug/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pawniard/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spewpa/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bisharp/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vivillon/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bouffalant/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Litleo/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rufflet/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pyroar/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Braviary/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Flabebe/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vullaby/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Floette/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mandibuzz/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Florges/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Heatmor/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skiddo/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Durant/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gogoat/ - https://scrapeme.live/shop/page/40/ - live-40</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Deino/ - https://scrapeme.live/shop/page/38/ - live-38</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pupitar/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tyranitar/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lugia/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Ho-oh/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Celebi/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Treecko/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Grovyle/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sceptile/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Torchic/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Combusken/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Blaziken/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mudkip/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Marshtomp/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swampert/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Poochyena/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mightyena/ - https://scrapeme.live/shop/page/16/ - live-16</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Pangoro/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Furfrou/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Espurr/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Honedge/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Doublade/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spritzee/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Aromatisse/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swirlix/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Slurpuff/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Inkay/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Malamar/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Binacle/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Barbaracle/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Skrelp/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dragalge/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Clauncher/ - https://scrapeme.live/shop/page/41/ - live-41</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lileep/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cradily/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Anorith/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Armaldo/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Feebas/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Milotic/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Castform/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kecleon/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shuppet/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Banette/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Duskull/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dusclops/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tropius/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chimecho/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Absol/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wynaut/ - https://scrapeme.live/shop/page/22/ - live-22</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spinda/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Trapinch/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Vibrava/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Flygon/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cacnea/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Cacturne/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swablu/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Altaria/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Seviper/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lunatone/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Solrock/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Whiscash/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Corphish/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Crawdaunt/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Baltoy/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Claydol/ - https://scrapeme.live/shop/page/21/ - live-21</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Regirock/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Regice/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Registeel/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Latias/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Latios/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Kyogre/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Groudon/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Rayquaza/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Jirachi/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Turtwig/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Grotle/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Torterra/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Chimchar/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Monferno/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Infernape/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Prinplup/ - https://scrapeme.live/shop/page/24/ - live-24</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Snorunt/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Glalie/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Toxapex/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mudbray/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spheal/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Mudsdale/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Dewpider/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Araquanid/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Fomantis/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Lurantis/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Morelull/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shiinotic/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Salandit/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Salazzle/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sealeo/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Walrein/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Stufful/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Clamperl/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Plusle/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Minun/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bewear/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Volbeat/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Huntail/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Illumise/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Roselia/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gorebyss/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Gulpin/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Relicanth/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bounsweet/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Luvdisc/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Swalot/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Carvanha/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Bagon/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Sharpedo/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Shelgon/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wailmer/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Salamence/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Wailord/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Beldum/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Numel/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Steenee/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Metang/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Camerupt/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Metagross/ - https://scrapeme.live/shop/page/23/ - live-23</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Tsareena/ - https://scrapeme.live/shop/page/45/ - live-45</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Torkoal/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Spoink/ - https://scrapeme.live/shop/page/20/ - live-20</t>
-  </si>
-  <si>
-    <t>https://scrapeme.live/shop/Grumpig/ - https://scrapeme.live/shop/page/20/ - live-20</t>
   </si>
 </sst>
 </file>
@@ -2628,17 +2627,6 @@
 </theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -2648,82 +2636,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -2739,82 +2727,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2830,82 +2818,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2921,82 +2909,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3012,82 +3000,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -3103,82 +3091,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -3194,82 +3182,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3280,87 +3268,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -3376,82 +3364,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3467,82 +3455,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3553,87 +3541,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -3649,82 +3637,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3740,82 +3728,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3831,82 +3819,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3922,82 +3910,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4013,82 +4001,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4104,82 +4092,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4195,82 +4183,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4286,82 +4274,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4377,82 +4365,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4468,82 +4456,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4559,17 +4547,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4585,82 +4638,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4676,82 +4729,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -4767,82 +4820,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4858,82 +4911,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4949,82 +5002,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>499</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5040,82 +5093,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>521</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5131,82 +5184,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>545</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>550</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>553</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5222,82 +5275,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5313,82 +5366,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>571</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>573</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5404,82 +5457,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>590</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>591</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>592</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>594</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5495,82 +5548,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5586,82 +5639,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>622</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>624</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5677,82 +5730,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>599</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>609</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>613</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>615</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5768,82 +5821,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>637</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>638</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>641</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5859,82 +5912,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>643</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>654</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>655</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>657</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>658</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5950,82 +6003,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>668</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>673</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -6041,82 +6094,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>675</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>678</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>679</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>683</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>684</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>685</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>686</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>687</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>688</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>689</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>690</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6132,82 +6185,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>691</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>692</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>693</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>698</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>699</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>700</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>701</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>702</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>703</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>705</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>706</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6223,82 +6276,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>741</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -6314,82 +6367,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>709</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>735</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -6405,82 +6458,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>725</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>726</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>754</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6496,82 +6484,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6587,82 +6575,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6678,82 +6666,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6769,82 +6757,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6860,82 +6848,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
